--- a/tercer-entregable/modelo_relacional.xlsx
+++ b/tercer-entregable/modelo_relacional.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\zl39gm6lqwghg63nzf3\tercer-entregable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\zl39gm6lqwghg63nzf3\tercer-entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41244047-8C57-4965-8C28-A7FA3FD58F49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D59D28E-8741-42C0-8489-D062207D59E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55231C1C-0D87-4567-9009-5F805329A269}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Coordinadores</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Instituciones</t>
   </si>
   <si>
-    <t>Patrocinadores</t>
-  </si>
-  <si>
     <t>Respuestas</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>dni / Personas</t>
   </si>
   <si>
-    <t>OID_Form, fechaCreacion, OID_Act</t>
-  </si>
-  <si>
     <t>OID_Form</t>
   </si>
   <si>
@@ -237,54 +231,30 @@
     <t>dni / Personas, OID_Vol / Voluntarios, OID_Tut / TutoresLegales</t>
   </si>
   <si>
-    <t>OID_Patr, tipo, cif</t>
-  </si>
-  <si>
-    <t>OID_Patr</t>
-  </si>
-  <si>
-    <t>cif / Instituciones</t>
-  </si>
-  <si>
     <t>OID_Fin, cantidad, OID_Patr, OID_Act</t>
   </si>
   <si>
     <t>OID_Fin</t>
   </si>
   <si>
-    <t>OID_Patr / Patrocinadores, OID_Act / Actividades</t>
-  </si>
-  <si>
     <t>dni, nombre, apellidos, fechaNacimiento, direccion, localidad, provincia, codigoPostal, email, telefono</t>
   </si>
   <si>
     <t>dni</t>
   </si>
   <si>
-    <t>OID_Q, tipo, enunciado, OID_Form</t>
-  </si>
-  <si>
     <t>OID_Q</t>
   </si>
   <si>
-    <t>OID_Form / Cuestionarios</t>
-  </si>
-  <si>
     <t>OID_Rec, fechaEmision, fechaVencimiento, importe, estado, OID_Act, OID_Fin, OID_Part</t>
   </si>
   <si>
     <t>OID_Act / Actividades, OID_Fin / Patrocinios, OID_Part / Participantes</t>
   </si>
   <si>
-    <t>OID_Ans, contenido, OID_Q, OID_Vol, OID_Part</t>
-  </si>
-  <si>
     <t>OID_Ans</t>
   </si>
   <si>
-    <t>OID_Q / Preguntas, OID_Vol / Voluntarios, OID_Part / Participantes</t>
-  </si>
-  <si>
     <t>OID_Don, cantidad, valorUnitario, dni, cif, OID_TDon</t>
   </si>
   <si>
@@ -298,6 +268,33 @@
   </si>
   <si>
     <t>OID_Vol, prioridadParticipacion, dni</t>
+  </si>
+  <si>
+    <t>cif / Instituciones, OID_Act / Actividades</t>
+  </si>
+  <si>
+    <t>Formularios</t>
+  </si>
+  <si>
+    <t>OID_Cues, fechaCreacion, OID_Act</t>
+  </si>
+  <si>
+    <t>OID_Cues</t>
+  </si>
+  <si>
+    <t>OID_Form, OID_Cues, OID_Q</t>
+  </si>
+  <si>
+    <t>OID_Cues / Cuestionarios, OID_Q / Preguntas</t>
+  </si>
+  <si>
+    <t>OID_Q, tipo, enunciado</t>
+  </si>
+  <si>
+    <t>OID_Ans, contenido, OID_Form, OID_Vol, OID_Part</t>
+  </si>
+  <si>
+    <t>OID_Form / Formularios, OID_Vol / Voluntarios, OID_Part / Participantes</t>
   </si>
 </sst>
 </file>
@@ -891,7 +888,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,30 +901,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,27 +946,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -991,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,121 +1016,121 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,36 +1138,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -1179,27 +1174,27 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -1219,13 +1214,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1233,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tercer-entregable/modelo_relacional.xlsx
+++ b/tercer-entregable/modelo_relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\zl39gm6lqwghg63nzf3\tercer-entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D59D28E-8741-42C0-8489-D062207D59E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A56E7126-FDDD-413F-B0FD-F3B7290FCFF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55231C1C-0D87-4567-9009-5F805329A269}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>Coordinadores</t>
   </si>
@@ -78,15 +78,9 @@
     <t>Respuestas</t>
   </si>
   <si>
-    <t>Eventos</t>
-  </si>
-  <si>
     <t>Patrocinios</t>
   </si>
   <si>
-    <t>ProgramasDeportivos</t>
-  </si>
-  <si>
     <t>Actividades</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>OID_Colab, OID_Vol, OID_Act</t>
   </si>
   <si>
-    <t>OID_Proj / Eventos, OID_Proj / ProgramasDeportivos</t>
-  </si>
-  <si>
     <t>OID_Colab</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>OID_RP</t>
   </si>
   <si>
-    <t>OID_Proj / Eventos, OID_Proj / ProgramasDeportivos, OID_Coord / Coordinadores</t>
-  </si>
-  <si>
     <t>OID_Env, dni, cif, OID_M</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>OID_Vol / Voluntarios, OID_Part / Participantes, OID_Act / Actividades</t>
   </si>
   <si>
-    <t>OID_Proj, nombre, ubicación</t>
-  </si>
-  <si>
     <t>OID_Inf, descripcion, fecha, OID_Part</t>
   </si>
   <si>
@@ -295,6 +280,18 @@
   </si>
   <si>
     <t>OID_Form / Formularios, OID_Vol / Voluntarios, OID_Part / Participantes</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>OID_Proj, nombre, ubicación, esEvento, esProgDep</t>
+  </si>
+  <si>
+    <t>OID_Proj / Proyectos</t>
+  </si>
+  <si>
+    <t>OID_Proj / Proyectos, OID_Coord / Coordinadores</t>
   </si>
 </sst>
 </file>
@@ -885,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB73C4-E856-4939-B92D-61B0DA18AF05}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,30 +898,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1002,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,229 +1013,217 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>43</v>
+      <c r="B24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A25">
+  <sortState ref="A2:A24">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tercer-entregable/modelo_relacional.xlsx
+++ b/tercer-entregable/modelo_relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\zl39gm6lqwghg63nzf3\tercer-entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A56E7126-FDDD-413F-B0FD-F3B7290FCFF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC88D76E-3A4B-4737-BABD-51F0B45D9513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55231C1C-0D87-4567-9009-5F805329A269}"/>
   </bookViews>
@@ -186,12 +186,6 @@
     <t>OID_Part / Participantes</t>
   </si>
   <si>
-    <t>OID_Ins, OID_Part, OID_Act</t>
-  </si>
-  <si>
-    <t>OID_Part / Participantes, OID_Act / Actividades</t>
-  </si>
-  <si>
     <t>cif, nombre, telefono, direccion, localidad, provincia, codigoPostal, email</t>
   </si>
   <si>
@@ -231,12 +225,6 @@
     <t>OID_Q</t>
   </si>
   <si>
-    <t>OID_Rec, fechaEmision, fechaVencimiento, importe, estado, OID_Act, OID_Fin, OID_Part</t>
-  </si>
-  <si>
-    <t>OID_Act / Actividades, OID_Fin / Patrocinios, OID_Part / Participantes</t>
-  </si>
-  <si>
     <t>OID_Ans</t>
   </si>
   <si>
@@ -292,6 +280,18 @@
   </si>
   <si>
     <t>OID_Proj / Proyectos, OID_Coord / Coordinadores</t>
+  </si>
+  <si>
+    <t>OID_Ins, OID_Part, OID_Act, OID_Rec</t>
+  </si>
+  <si>
+    <t>OID_Part / Participantes, OID_Act / Actividades, OID_Rec / Recibos</t>
+  </si>
+  <si>
+    <t>OID_Rec, fechaEmision, fechaVencimiento, importe, estado, OID_Act, OID_Part</t>
+  </si>
+  <si>
+    <t>OID_Act / Actividades, OID_Part / Participantes</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB73C4-E856-4939-B92D-61B0DA18AF05}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>42</v>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -991,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1069,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -1135,19 +1135,19 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
@@ -1159,13 +1159,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>32</v>

--- a/tercer-entregable/modelo_relacional.xlsx
+++ b/tercer-entregable/modelo_relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\zl39gm6lqwghg63nzf3\tercer-entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC88D76E-3A4B-4737-BABD-51F0B45D9513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5172EBFE-D5B1-469D-88C7-2B4EBD2E93D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55231C1C-0D87-4567-9009-5F805329A269}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>OID_Ans</t>
   </si>
   <si>
-    <t>OID_Don, cantidad, valorUnitario, dni, cif, OID_TDon</t>
-  </si>
-  <si>
     <t>OID_TDon, nombre, tipoUnidad</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>OID_Act / Actividades, OID_Part / Participantes</t>
+  </si>
+  <si>
+    <t>OID_Don, fecha, cantidad, valorUnitario, dni, cif, OID_TDon</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB73C4-E856-4939-B92D-61B0DA18AF05}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>42</v>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -991,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>65</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
@@ -1159,13 +1159,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>32</v>
